--- a/ExcelTestInputData/PDF.xlsx
+++ b/ExcelTestInputData/PDF.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="16230" windowHeight="6540"/>
@@ -33,26 +33,26 @@
     <t>M10 Mlogo Path</t>
   </si>
   <si>
-    <t>Deepika</t>
-  </si>
-  <si>
-    <t>C:\Users\Dell\Desktop\Deepika\Grid\Painite_2023\Screenshots\</t>
-  </si>
-  <si>
     <t>Demo Web Shop</t>
   </si>
   <si>
-    <t>C:\Users\Dell\Desktop\Deepika\Grid\Painite_2023\Logo\M10logo.png</t>
-  </si>
-  <si>
-    <t>C:\Users\Dell\Desktop\Deepika\Grid\Painite_2023\test-output\Suite\ChromeTest.html</t>
+    <t>C:\Users\DELL E5490\PAINITE Folder\painite_copy\pAInITe\Screenshots\</t>
+  </si>
+  <si>
+    <t>C:\Users\DELL E5490\PAINITE Folder\painite_copy\pAInITe\Logo\M10logo.png</t>
+  </si>
+  <si>
+    <t>C:\Users\DELL E5490\PAINITE Folder\painite_copy\pAInITe\test-output\Sample\TestNG_Report1.html</t>
+  </si>
+  <si>
+    <t>Greeshma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,6 +238,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,24 +414,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.1" customHeight="1">
+    <row r="1" spans="1:5" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -446,24 +448,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45">
+    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="E8" s="2"/>
@@ -475,24 +477,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
